--- a/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.566045607440649</v>
+        <v>0.433954392559351</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.990349024903221</v>
+        <v>0.009650975096779001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.912490297903323</v>
+        <v>0.08750970209667699</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999993946513707</v>
+        <v>6.05348629301172e-06</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.197981301598767</v>
+        <v>0.923785560856597</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.564102564102564</v>
+        <v>0.625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0071805373525557</v>
+        <v>0.0164748404771813</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0222545119501871</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0078255116168342</v>
+        <v>0.0308240871661311</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.1289552518255</v>
+        <v>12.6729542132164</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.433954392559351</v>
+        <v>0.922164331453973</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.955555555555556</v>
+        <v>0.9761904761904761</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.022528894138</v>
+        <v>0.591357142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.791844410827481</v>
+        <v>-0.072773152712318</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6191327669151671</v>
+        <v>1.12247044064973</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.383797174412266</v>
+        <v>10.0914188200878</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0078443944685339</v>
+        <v>0.000158001905157</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0545</v>
+        <v>0.065</v>
       </c>
       <c r="K4" t="n">
-        <v>0.014717032967033</v>
+        <v>0.0260892857142857</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004109729823347</v>
+        <v>0.0148694020828398</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0255221273291925</v>
+        <v>0.0365765775871314</v>
       </c>
       <c r="N4" t="n">
-        <v>27.0037302147394</v>
+        <v>40.1373626373626</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.275354296924575</v>
+        <v>0.238292912766253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H5" t="n">
-        <v>0.847826086956522</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>845</v>
+        <v>1379</v>
       </c>
       <c r="K5" t="n">
-        <v>30.6932773109244</v>
+        <v>74.9903086862886</v>
       </c>
       <c r="L5" t="n">
-        <v>-94.96884067252761</v>
+        <v>-153.654742886</v>
       </c>
       <c r="M5" t="n">
-        <v>275.65569930672</v>
+        <v>405.306880065587</v>
       </c>
       <c r="N5" t="n">
-        <v>3.63234051016856</v>
+        <v>5.43802093446618</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.852581643910964</v>
+        <v>0.779118629662935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.170731707317073</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H6" t="n">
-        <v>0.878048780487805</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.038646314363102</v>
+        <v>0.0386072813090382</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0036080403982253</v>
+        <v>-0.0031442061822024</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0121556927208245</v>
+        <v>-0.0152029743732324</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001326573773261</v>
+        <v>0.0030668988758325</v>
       </c>
       <c r="N6" t="n">
-        <v>-9.336053017439131</v>
+        <v>-8.1440756137013</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.622810286819467</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="H7" t="n">
-        <v>0.673913043478261</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0005351648351648</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.003671676252951</v>
+        <v>-0.0027093554270113</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0021645521146611</v>
+        <v>0.0025827359093336</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.45267635590216</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.272128671506245</v>
+        <v>0.408903907056657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H8" t="n">
-        <v>0.869565217391304</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.194</v>
+        <v>0.192</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0107426470588235</v>
+        <v>0.0065223214285714</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0272657026084663</v>
+        <v>-0.032237786611693</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06750484787119509</v>
+        <v>0.043981852577027</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5374469375379</v>
+        <v>3.39704241071429</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.009650975096779001</v>
+        <v>0.020988370862515</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.826086956521739</v>
+        <v>0.8536585365853659</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.37</v>
+        <v>7.3</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0602060439560445</v>
+        <v>-0.0579761904761905</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.101887151310228</v>
+        <v>-0.09691539206739549</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0190544353823541</v>
+        <v>-0.0136833215004934</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.816906973623398</v>
+        <v>-0.794194390084802</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.654573604987954</v>
+        <v>0.861791543075706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0217391304347826</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.956521739130435</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0177881493506493</v>
+        <v>-0.0516567857142857</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.112332808278114</v>
+        <v>-0.137117671156471</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0617024442628978</v>
+        <v>0.0186602267600041</v>
       </c>
       <c r="N10" t="n">
-        <v>-4.24538170659889</v>
+        <v>-12.5992160278746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.792273198851118</v>
+        <v>0.55411225255647</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.956521739130435</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52</v>
+        <v>2.18</v>
       </c>
       <c r="K11" t="n">
-        <v>-3.49521531100478</v>
+        <v>-0.012423469387755</v>
       </c>
       <c r="L11" t="n">
-        <v>-11.78223657968</v>
+        <v>-0.184903606352402</v>
       </c>
       <c r="M11" t="n">
-        <v>3.47317911620101</v>
+        <v>0.151415225818103</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.72156790577843</v>
+        <v>-0.569883916869496</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.721442031178274</v>
+        <v>0.106457534188408</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.91304347826087</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.155</v>
+        <v>0.369</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.047870249017038</v>
+        <v>0.0217410714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.194474920251043</v>
+        <v>-0.0056465099906267</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0984120451850819</v>
+        <v>0.0443952875244972</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.2213572629716</v>
+        <v>5.89188927603562</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0375108405412887</v>
+        <v>0.999432886494887</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.91304347826087</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.302</v>
+        <v>33.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0247627118644068</v>
+        <v>-8.95497104247104</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0022828138774535</v>
+        <v>-14.9632335983705</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0450331806827913</v>
+        <v>-3.91059243064256</v>
       </c>
       <c r="N13" t="n">
-        <v>8.19957346503536</v>
+        <v>-26.6516995311638</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6921080427564</v>
+        <v>0.0082891866386659</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H14" t="n">
-        <v>0.978260869565217</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>34.15</v>
+        <v>0.16</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.71807491289199</v>
+        <v>-0.0157164371772805</v>
       </c>
       <c r="L14" t="n">
-        <v>-8.53986372842501</v>
+        <v>-0.0262856016060753</v>
       </c>
       <c r="M14" t="n">
-        <v>3.51667924223318</v>
+        <v>-0.0042873227317943</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.0309660699619</v>
+        <v>-9.822773235800341</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0008991586584019</v>
+        <v>0.284247759669512</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.529411764705882</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.16</v>
+        <v>6.095</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0215134530876571</v>
+        <v>-0.07505136986301381</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0326116071428571</v>
+        <v>-0.295664607127227</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.00967268577201</v>
+        <v>0.110472320675507</v>
       </c>
       <c r="N15" t="n">
-        <v>-13.4459081797857</v>
+        <v>-1.23135963680088</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.08750970209667699</v>
+        <v>0.0006210674341059999</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.95</v>
+        <v>0.755102040816326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.255</v>
+        <v>0.047</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.163029620140243</v>
+        <v>0.0045981116584564</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3873603605664</v>
+        <v>0.0017721476309617</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0430377256009213</v>
+        <v>0.0078128424888699</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.60638881119494</v>
+        <v>9.78321629458827</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.318855736437795</v>
+        <v>0.0195687674331569</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H17" t="n">
-        <v>0.705882352941177</v>
+        <v>0.836734693877551</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.046</v>
+        <v>698.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000332347588717</v>
+        <v>53.4254163649529</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0017232337294858</v>
+        <v>7.3365545810328</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0026091910410338</v>
+        <v>147.334892129484</v>
       </c>
       <c r="N17" t="n">
-        <v>0.722494758080469</v>
+        <v>7.64859217823235</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.219178986547881</v>
+        <v>0.0114635536196497</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.311111111111111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.813725490196078</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>620</v>
+        <v>0.0356590055767437</v>
       </c>
       <c r="K18" t="n">
-        <v>13.0983245149912</v>
+        <v>0.0016218532331223</v>
       </c>
       <c r="L18" t="n">
-        <v>-17.8232983057008</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>66.75976294308499</v>
+        <v>0.0039026337631677</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1126329862889</v>
+        <v>4.54822900103554</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0004369853849902</v>
+        <v>0.006672605145413</v>
       </c>
       <c r="G19" t="n">
-        <v>0.375</v>
+        <v>0.0918367346938776</v>
       </c>
       <c r="H19" t="n">
-        <v>0.65625</v>
+        <v>0.459183673469388</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0290368750533358</v>
+        <v>0.012</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0021383895280611</v>
+        <v>0.0010648688046647</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0003521564265276</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0043550983996918</v>
+        <v>0.0018083657459321</v>
       </c>
       <c r="N19" t="n">
-        <v>7.36439277344154</v>
+        <v>8.87390670553936</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.146685219927326</v>
+        <v>0.005711801799807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08823529411764711</v>
+        <v>0.153061224489796</v>
       </c>
       <c r="H20" t="n">
-        <v>0.46078431372549</v>
+        <v>0.806122448979592</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.012</v>
+        <v>0.129</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000485704787234</v>
+        <v>0.0106254545454545</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0024521512084431</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0009998720075245001</v>
+        <v>0.0197679475177762</v>
       </c>
       <c r="N20" t="n">
-        <v>4.04753989361702</v>
+        <v>8.23678646934461</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.07133368780996049</v>
+        <v>2.16253661999843e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.794117647058823</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1185</v>
+        <v>7.41</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0026988916256157</v>
+        <v>-0.0546781437125748</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.07054973655218939</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0117270037368365</v>
+        <v>-0.0371380754042344</v>
       </c>
       <c r="N21" t="n">
-        <v>2.27754567562512</v>
+        <v>-0.737896676283061</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.05348629301172e-06</v>
+        <v>0.0030870652352099</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H22" t="n">
-        <v>0.702970297029703</v>
+        <v>0.8979591836734691</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.44</v>
+        <v>0.295</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0476694850992915</v>
+        <v>0.0268021077283372</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.06261428571428571</v>
+        <v>0.009384269780188199</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0308464896960438</v>
+        <v>0.0510650921090764</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.640718885743165</v>
+        <v>9.08546024689398</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Tura_1c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0175364483968074</v>
+        <v>0.0009473557798954</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.872549019607843</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.295</v>
+        <v>2.01</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0221908866995074</v>
+        <v>0.126016172506739</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0035659825549109</v>
+        <v>0.06750417652656721</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0397405401696766</v>
+        <v>0.180623843521081</v>
       </c>
       <c r="N23" t="n">
-        <v>7.52233447440929</v>
+        <v>6.26946131874321</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.47964903322733e-07</v>
+        <v>9.94606157849087e-07</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.637254901960784</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>0.287</v>
       </c>
       <c r="K24" t="n">
-        <v>3.99325801749271</v>
+        <v>0.0270116341991342</v>
       </c>
       <c r="L24" t="n">
-        <v>2.76303771494851</v>
+        <v>0.0191626739590313</v>
       </c>
       <c r="M24" t="n">
-        <v>5.79761904761905</v>
+        <v>0.034416516283644</v>
       </c>
       <c r="N24" t="n">
-        <v>15.3586846826643</v>
+        <v>9.41171923314781</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0002661268875876</v>
+        <v>6.92548314247818e-06</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.931372549019608</v>
+        <v>0.959183673469388</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>24.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.141580072793449</v>
+        <v>2.85505390835579</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0859431401903909</v>
+        <v>1.85101636998209</v>
       </c>
       <c r="M25" t="n">
-        <v>0.194587842324776</v>
+        <v>4.08109725798577</v>
       </c>
       <c r="N25" t="n">
-        <v>7.37396212465878</v>
+        <v>11.7491930385012</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78434953885924e-06</v>
+        <v>0.000207320140528</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0.92156862745098</v>
+        <v>0.506666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2765</v>
+        <v>0.17</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0258870431893688</v>
+        <v>-0.0210115052732502</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0181430077091831</v>
+        <v>-0.0317632887465251</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0341167582417582</v>
+        <v>-0.0102002736114242</v>
       </c>
       <c r="N26" t="n">
-        <v>9.36240260013337</v>
+        <v>-12.3597089842648</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.40271585372743e-07</v>
+        <v>0.298036034847705</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.970588235294118</v>
+        <v>0.936619718309859</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.3</v>
+        <v>6.395</v>
       </c>
       <c r="K27" t="n">
-        <v>3.41984812223859</v>
+        <v>-0.0229905582922825</v>
       </c>
       <c r="L27" t="n">
-        <v>2.55981230124401</v>
+        <v>-0.142648124881463</v>
       </c>
       <c r="M27" t="n">
-        <v>4.45416047883684</v>
+        <v>0.062013420795434</v>
       </c>
       <c r="N27" t="n">
-        <v>14.0734490627102</v>
+        <v>-0.359508339206919</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2903,6 +2903,912 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.476951405386144</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0013921018944806</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0015142609106943</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.164976983051962</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.56166014595</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-9.012622690595171</v>
+      </c>
+      <c r="M29" t="n">
+        <v>48.1921283417944</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.50444504176318</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0070990447280022</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.316176470588235</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.705882352941177</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0281819412736178</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0008436354473643</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0021202457851889</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.99353206073893</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0023441864910589</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0004445463736463</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0001252079930398</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0008402224992035</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.04133066951195</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.08792638602291129</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.194444444444444</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0013157926390372</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0056358709161517</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.24131381041245</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0248362374447439</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.617021276595745</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0159730320699707</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0288676624953148</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.002735335381997</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.215560486774234</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0126618706627047</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0132710908927976</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0040906629308844</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.023692224240811</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.36205692638287</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0010344740297525</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.909722222222222</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0811729791185317</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0385105485587367</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.118863695653857</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.37590183927395</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>9.612298783701921e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0166662356893977</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0112146367637222</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0218161102769411</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.23036848201783</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>6.364351455371719e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.51036095118003</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.919741219807112</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.02560721501733</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.05525840629352</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/trend_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -130,46 +130,34 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -648,13 +636,13 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.923785560856597</v>
+        <v>0.995175710858628</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.625</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -663,23 +651,23 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>0.0164748404771813</v>
+        <v>0.0317197893569845</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01273371672607</v>
       </c>
       <c r="M2">
-        <v>0.0308240871661311</v>
+        <v>0.0477552252110442</v>
       </c>
       <c r="N2">
-        <v>12.6729542132164</v>
+        <v>24.3998379669111</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
       <c r="Q2">
         <v>1784998</v>
       </c>
@@ -687,19 +675,19 @@
         <v>5565536</v>
       </c>
       <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,37 +707,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.922164331453973</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9761904761904761</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.86</v>
+        <v>6.03</v>
       </c>
       <c r="K3">
-        <v>0.591357142857143</v>
+        <v>-0.0021561393152301</v>
       </c>
       <c r="L3">
-        <v>-0.072773152712318</v>
+        <v>-0.5604676579343379</v>
       </c>
       <c r="M3">
-        <v>1.12247044064973</v>
+        <v>0.534879201990895</v>
       </c>
       <c r="N3">
-        <v>10.0914188200878</v>
+        <v>-0.0357568708993396</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1784998</v>
@@ -758,19 +746,19 @@
         <v>5565536</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,37 +778,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.000158001905157</v>
+        <v>0.0187456842837939</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.837209302325581</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="K4">
-        <v>0.0260892857142857</v>
+        <v>0.0185065444410778</v>
       </c>
       <c r="L4">
-        <v>0.0148694020828398</v>
+        <v>0.0021468098451108</v>
       </c>
       <c r="M4">
-        <v>0.0365765775871314</v>
+        <v>0.0336460525002957</v>
       </c>
       <c r="N4">
-        <v>40.1373626373626</v>
+        <v>17.6252804200741</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1784998</v>
@@ -829,19 +817,19 @@
         <v>5565536</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
         <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,37 +849,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.238292912766253</v>
+        <v>0.608227978602205</v>
       </c>
       <c r="G5">
-        <v>0.0465116279069767</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="H5">
-        <v>0.883720930232558</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>1379</v>
       </c>
       <c r="K5">
-        <v>74.9903086862886</v>
+        <v>-24.0262764866712</v>
       </c>
       <c r="L5">
-        <v>-153.654742886</v>
+        <v>-421.512868779366</v>
       </c>
       <c r="M5">
-        <v>405.306880065587</v>
+        <v>434.69724829583</v>
       </c>
       <c r="N5">
-        <v>5.43802093446618</v>
+        <v>-1.74229706212264</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1784998</v>
@@ -900,19 +888,19 @@
         <v>5565536</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
-      </c>
-      <c r="W5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,37 +920,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.779118629662935</v>
+        <v>0.213421304397851</v>
       </c>
       <c r="G6">
-        <v>0.157894736842105</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.868421052631579</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0386072813090382</v>
+        <v>0.0367009753749524</v>
       </c>
       <c r="K6">
-        <v>-0.0031442061822024</v>
+        <v>0.0028521150056327</v>
       </c>
       <c r="L6">
-        <v>-0.0152029743732324</v>
+        <v>-0.0033446129351064</v>
       </c>
       <c r="M6">
-        <v>0.0030668988758325</v>
+        <v>0.0074514934655806</v>
       </c>
       <c r="N6">
-        <v>-8.1440756137013</v>
+        <v>7.77122399743968</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1784998</v>
@@ -971,19 +959,19 @@
         <v>5565536</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
         <v>54</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1003,37 +991,37 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.709003388545161</v>
       </c>
       <c r="G7">
-        <v>0.0697674418604651</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="H7">
-        <v>0.674418604651163</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0008625146370023</v>
       </c>
       <c r="L7">
-        <v>-0.0027093554270113</v>
+        <v>-0.0029693024113068</v>
       </c>
       <c r="M7">
-        <v>0.0025827359093336</v>
+        <v>0.0016779186176787</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-7.18762197501951</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1784998</v>
@@ -1042,19 +1030,19 @@
         <v>5565536</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
         <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,37 +1062,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.408903907056657</v>
+        <v>0.681247156229275</v>
       </c>
       <c r="G8">
-        <v>0.0465116279069767</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="H8">
-        <v>0.883720930232558</v>
+        <v>0.8378378378378381</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0.192</v>
+        <v>0.168</v>
       </c>
       <c r="K8">
-        <v>0.0065223214285714</v>
+        <v>-0.0065707622768557</v>
       </c>
       <c r="L8">
-        <v>-0.032237786611693</v>
+        <v>-0.0528453344022281</v>
       </c>
       <c r="M8">
-        <v>0.043981852577027</v>
+        <v>0.038191438402589</v>
       </c>
       <c r="N8">
-        <v>3.39704241071429</v>
+        <v>-3.91116802193796</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1784998</v>
@@ -1113,19 +1101,19 @@
         <v>5565536</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" t="s">
         <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1133,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.020988370862515</v>
+        <v>0.454742598022204</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8536585365853659</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="K9">
-        <v>-0.0579761904761905</v>
+        <v>-0.0037577160493826</v>
       </c>
       <c r="L9">
-        <v>-0.09691539206739549</v>
+        <v>-0.0664009246754076</v>
       </c>
       <c r="M9">
-        <v>-0.0136833215004934</v>
+        <v>0.0630873224360603</v>
       </c>
       <c r="N9">
-        <v>-0.794194390084802</v>
+        <v>-0.0515461735169086</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1784998</v>
@@ -1184,16 +1172,16 @@
         <v>5565536</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.861791543075706</v>
+        <v>0.685778181645852</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1225,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.41</v>
+        <v>0.255</v>
       </c>
       <c r="K10">
-        <v>-0.0516567857142857</v>
+        <v>-0.0148201361532019</v>
       </c>
       <c r="L10">
-        <v>-0.137117671156471</v>
+        <v>-0.0940147324740489</v>
       </c>
       <c r="M10">
-        <v>0.0186602267600041</v>
+        <v>0.0369021789651496</v>
       </c>
       <c r="N10">
-        <v>-12.5992160278746</v>
+        <v>-5.81181809929487</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
@@ -1252,19 +1240,19 @@
         <v>5565536</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" t="s">
         <v>53</v>
-      </c>
-      <c r="U10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,37 +1272,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.55411225255647</v>
+        <v>0.603185077588217</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.976744186046512</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>-0.012423469387755</v>
+        <v>-0.0361424207074333</v>
       </c>
       <c r="L11">
-        <v>-0.184903606352402</v>
+        <v>-0.230747891599451</v>
       </c>
       <c r="M11">
-        <v>0.151415225818103</v>
+        <v>0.151042058988756</v>
       </c>
       <c r="N11">
-        <v>-0.569883916869496</v>
+        <v>-1.72106765273492</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>1784998</v>
@@ -1323,19 +1311,19 @@
         <v>5565536</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" t="s">
         <v>53</v>
-      </c>
-      <c r="U11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,37 +1343,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.106457534188408</v>
+        <v>0.6669850399291259</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.930232558139535</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="K12">
-        <v>0.0217410714285714</v>
+        <v>-0.0082587221572228</v>
       </c>
       <c r="L12">
-        <v>-0.0056465099906267</v>
+        <v>-0.0420968873009338</v>
       </c>
       <c r="M12">
-        <v>0.0443952875244972</v>
+        <v>0.020426433447536</v>
       </c>
       <c r="N12">
-        <v>5.89188927603562</v>
+        <v>-2.26887971352276</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1784998</v>
@@ -1394,19 +1382,19 @@
         <v>5565536</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" t="s">
         <v>53</v>
-      </c>
-      <c r="U12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,38 +1414,38 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.999432886494887</v>
+        <v>0.999942903758927</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.976744186046512</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>33.6</v>
+        <v>30.1</v>
       </c>
       <c r="K13">
-        <v>-8.95497104247104</v>
+        <v>-11.3241160319216</v>
       </c>
       <c r="L13">
-        <v>-14.9632335983705</v>
+        <v>-17.7485315716042</v>
       </c>
       <c r="M13">
-        <v>-3.91059243064256</v>
+        <v>-6.02392476302211</v>
       </c>
       <c r="N13">
-        <v>-26.6516995311638</v>
+        <v>-37.6216479465834</v>
       </c>
       <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
         <v>39</v>
       </c>
-      <c r="P13" t="s">
-        <v>47</v>
-      </c>
       <c r="Q13">
         <v>1784998</v>
       </c>
@@ -1465,19 +1453,19 @@
         <v>5565536</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,13 +1485,13 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0082891866386659</v>
+        <v>0.044578027212973</v>
       </c>
       <c r="G14">
-        <v>0.0144927536231884</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="H14">
-        <v>0.521739130434783</v>
+        <v>0.492957746478873</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1512,22 +1500,22 @@
         <v>0.16</v>
       </c>
       <c r="K14">
-        <v>-0.0157164371772805</v>
+        <v>-0.008813947876447801</v>
       </c>
       <c r="L14">
-        <v>-0.0262856016060753</v>
+        <v>-0.0193225546561082</v>
       </c>
       <c r="M14">
-        <v>-0.0042873227317943</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-9.822773235800341</v>
+        <v>-5.50871742277992</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14">
         <v>1784998</v>
@@ -1536,19 +1524,19 @@
         <v>5565536</v>
       </c>
       <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
         <v>52</v>
-      </c>
-      <c r="T14" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,37 +1556,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.284247759669512</v>
+        <v>0.529232214453553</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.958333333333333</v>
+        <v>0.955056179775281</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.095</v>
+        <v>5.99</v>
       </c>
       <c r="K15">
-        <v>-0.07505136986301381</v>
+        <v>0.0159934318555008</v>
       </c>
       <c r="L15">
-        <v>-0.295664607127227</v>
+        <v>-0.166193044611678</v>
       </c>
       <c r="M15">
-        <v>0.110472320675507</v>
+        <v>0.273770532424758</v>
       </c>
       <c r="N15">
-        <v>-1.23135963680088</v>
+        <v>0.267002201260448</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>1784998</v>
@@ -1607,19 +1595,19 @@
         <v>5565536</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
         <v>53</v>
-      </c>
-      <c r="U15" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0006210674341059999</v>
+        <v>6.990717439504779E-05</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.755102040816326</v>
+        <v>0.758241758241758</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1654,22 +1642,22 @@
         <v>0.047</v>
       </c>
       <c r="K16">
-        <v>0.0045981116584564</v>
+        <v>0.0069792993630573</v>
       </c>
       <c r="L16">
-        <v>0.0017721476309617</v>
+        <v>0.002559431426442</v>
       </c>
       <c r="M16">
-        <v>0.0078128424888699</v>
+        <v>0.0120260570413337</v>
       </c>
       <c r="N16">
-        <v>9.78321629458827</v>
+        <v>14.8495731128879</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1784998</v>
@@ -1678,19 +1666,19 @@
         <v>5565536</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
         <v>54</v>
-      </c>
-      <c r="V16" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1698,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0195687674331569</v>
+        <v>0.213176081193176</v>
       </c>
       <c r="G17">
-        <v>0.0408163265306122</v>
+        <v>0.0549450549450549</v>
       </c>
       <c r="H17">
-        <v>0.836734693877551</v>
+        <v>0.813186813186813</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>698.5</v>
+        <v>920</v>
       </c>
       <c r="K17">
-        <v>53.4254163649529</v>
+        <v>22.9162644787645</v>
       </c>
       <c r="L17">
-        <v>7.3365545810328</v>
+        <v>-24.2003381184645</v>
       </c>
       <c r="M17">
-        <v>147.334892129484</v>
+        <v>113.492488755179</v>
       </c>
       <c r="N17">
-        <v>7.64859217823235</v>
+        <v>2.49089831290918</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1784998</v>
@@ -1749,19 +1737,19 @@
         <v>5565536</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
-      </c>
-      <c r="W17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1778,40 +1766,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0114635536196497</v>
+        <v>0.245182885918656</v>
       </c>
       <c r="G18">
-        <v>0.311111111111111</v>
+        <v>0.253012048192771</v>
       </c>
       <c r="H18">
-        <v>0.722222222222222</v>
+        <v>0.783132530120482</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>0.0356590055767437</v>
+        <v>0.0385682482549745</v>
       </c>
       <c r="K18">
-        <v>0.0016218532331223</v>
+        <v>2.03668899954126E-05</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.000630400023328</v>
       </c>
       <c r="M18">
-        <v>0.0039026337631677</v>
+        <v>0.0023841760290048</v>
       </c>
       <c r="N18">
-        <v>4.54822900103554</v>
+        <v>0.0528074022464468</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1784998</v>
@@ -1820,19 +1808,19 @@
         <v>5565536</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U18" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" t="s">
         <v>54</v>
-      </c>
-      <c r="V18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,13 +1840,13 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.006672605145413</v>
+        <v>0.399681726688465</v>
       </c>
       <c r="G19">
-        <v>0.0918367346938776</v>
+        <v>0.120879120879121</v>
       </c>
       <c r="H19">
-        <v>0.459183673469388</v>
+        <v>0.472527472527473</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1867,19 +1855,19 @@
         <v>0.012</v>
       </c>
       <c r="K19">
-        <v>0.0010648688046647</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0003521564265276</v>
+        <v>-0.0007565900202047</v>
       </c>
       <c r="M19">
-        <v>0.0018083657459321</v>
+        <v>0.0009532533712897999</v>
       </c>
       <c r="N19">
-        <v>8.87390670553936</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
         <v>42</v>
@@ -1891,19 +1879,19 @@
         <v>5565536</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" t="s">
         <v>54</v>
-      </c>
-      <c r="V19" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,37 +1911,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.005711801799807</v>
+        <v>0.118081694883256</v>
       </c>
       <c r="G20">
-        <v>0.153061224489796</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H20">
-        <v>0.806122448979592</v>
+        <v>0.802197802197802</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.129</v>
+        <v>0.142</v>
       </c>
       <c r="K20">
-        <v>0.0106254545454545</v>
+        <v>0.0029405190133607</v>
       </c>
       <c r="L20">
-        <v>0.0024521512084431</v>
+        <v>-0.0009062794108381</v>
       </c>
       <c r="M20">
-        <v>0.0197679475177762</v>
+        <v>0.015145226418018</v>
       </c>
       <c r="N20">
-        <v>8.23678646934461</v>
+        <v>2.07078803757799</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q20">
         <v>1784998</v>
@@ -1962,19 +1950,19 @@
         <v>5565536</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" t="s">
         <v>54</v>
-      </c>
-      <c r="V20" t="s">
-        <v>55</v>
-      </c>
-      <c r="W20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,37 +1982,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>2.16253661999843E-06</v>
+        <v>0.001305267037621</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.736842105263158</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.41</v>
+        <v>7.375</v>
       </c>
       <c r="K21">
-        <v>-0.0546781437125748</v>
+        <v>-0.0373120976578551</v>
       </c>
       <c r="L21">
-        <v>-0.07054973655218939</v>
+        <v>-0.0556150933837427</v>
       </c>
       <c r="M21">
-        <v>-0.0371380754042344</v>
+        <v>-0.0179810411547157</v>
       </c>
       <c r="N21">
-        <v>-0.737896676283061</v>
+        <v>-0.505926747903121</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1784998</v>
@@ -2033,16 +2021,16 @@
         <v>5565536</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2059,37 +2047,37 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>0.0030870652352099</v>
+        <v>0.440040434618726</v>
       </c>
       <c r="G22">
-        <v>0.0408163265306122</v>
+        <v>0.043956043956044</v>
       </c>
       <c r="H22">
-        <v>0.8979591836734691</v>
+        <v>0.912087912087912</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.295</v>
+        <v>0.34</v>
       </c>
       <c r="K22">
-        <v>0.0268021077283372</v>
+        <v>0.0014787449392712</v>
       </c>
       <c r="L22">
-        <v>0.009384269780188199</v>
+        <v>-0.0239226543199994</v>
       </c>
       <c r="M22">
-        <v>0.0510650921090764</v>
+        <v>0.0249273491260094</v>
       </c>
       <c r="N22">
-        <v>9.08546024689398</v>
+        <v>0.434924982138604</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
         <v>42</v>
@@ -2101,19 +2089,19 @@
         <v>5565536</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
         <v>53</v>
-      </c>
-      <c r="U22" t="s">
-        <v>54</v>
-      </c>
-      <c r="V22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,34 +2121,34 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0009473557798954</v>
+        <v>0.387991306372962</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.928571428571429</v>
+        <v>0.934065934065934</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="K23">
-        <v>0.126016172506739</v>
+        <v>0.0144940476190475</v>
       </c>
       <c r="L23">
-        <v>0.06750417652656721</v>
+        <v>-0.068952582490186</v>
       </c>
       <c r="M23">
-        <v>0.180623843521081</v>
+        <v>0.0834729874452763</v>
       </c>
       <c r="N23">
-        <v>6.26946131874321</v>
+        <v>0.677291944815305</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
         <v>42</v>
@@ -2172,19 +2160,19 @@
         <v>5565536</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" t="s">
         <v>53</v>
-      </c>
-      <c r="U23" t="s">
-        <v>54</v>
-      </c>
-      <c r="V23" t="s">
-        <v>55</v>
-      </c>
-      <c r="W23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2192,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>9.94606157849087E-07</v>
+        <v>0.0135078327597402</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.938775510204082</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.287</v>
+        <v>0.3</v>
       </c>
       <c r="K24">
-        <v>0.0270116341991342</v>
+        <v>0.0127013627819549</v>
       </c>
       <c r="L24">
-        <v>0.0191626739590313</v>
+        <v>0.0035426038151307</v>
       </c>
       <c r="M24">
-        <v>0.034416516283644</v>
+        <v>0.0221421717290807</v>
       </c>
       <c r="N24">
-        <v>9.41171923314781</v>
+        <v>4.23378759398496</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>1784998</v>
@@ -2243,19 +2231,19 @@
         <v>5565536</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
         <v>53</v>
-      </c>
-      <c r="U24" t="s">
-        <v>54</v>
-      </c>
-      <c r="V24" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2263,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>6.92548314247818E-06</v>
+        <v>0.158395307102505</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.959183673469388</v>
+        <v>0.956043956043956</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>24.3</v>
+        <v>27.7</v>
       </c>
       <c r="K25">
-        <v>2.85505390835579</v>
+        <v>0.734365079365076</v>
       </c>
       <c r="L25">
-        <v>1.85101636998209</v>
+        <v>-0.465897952459225</v>
       </c>
       <c r="M25">
-        <v>4.08109725798577</v>
+        <v>1.96180187327394</v>
       </c>
       <c r="N25">
-        <v>11.7491930385012</v>
+        <v>2.65113747063204</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1784998</v>
@@ -2314,19 +2302,19 @@
         <v>5565536</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,13 +2334,13 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.000207320140528</v>
+        <v>0.0007722859249229</v>
       </c>
       <c r="G26">
-        <v>0.0266666666666667</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H26">
-        <v>0.506666666666667</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2361,22 +2349,22 @@
         <v>0.17</v>
       </c>
       <c r="K26">
-        <v>-0.0210115052732502</v>
+        <v>-0.0168317972350231</v>
       </c>
       <c r="L26">
-        <v>-0.0317632887465251</v>
+        <v>-0.0273288873866637</v>
       </c>
       <c r="M26">
-        <v>-0.0102002736114242</v>
+        <v>-0.0072983957174385</v>
       </c>
       <c r="N26">
-        <v>-12.3597089842648</v>
+        <v>-9.90105719707239</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1784998</v>
@@ -2385,19 +2373,19 @@
         <v>5565536</v>
       </c>
       <c r="S26" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" t="s">
         <v>52</v>
-      </c>
-      <c r="T26" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" t="s">
-        <v>54</v>
-      </c>
-      <c r="V26" t="s">
-        <v>55</v>
-      </c>
-      <c r="W26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,37 +2405,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.298036034847705</v>
+        <v>0.426169663853205</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.936619718309859</v>
+        <v>0.931972789115646</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>6.395</v>
+        <v>6.39</v>
       </c>
       <c r="K27">
-        <v>-0.0229905582922825</v>
+        <v>-0.0126868610385516</v>
       </c>
       <c r="L27">
-        <v>-0.142648124881463</v>
+        <v>-0.111427827343854</v>
       </c>
       <c r="M27">
-        <v>0.062013420795434</v>
+        <v>0.0746786714182041</v>
       </c>
       <c r="N27">
-        <v>-0.359508339206919</v>
+        <v>-0.198542426268413</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q27">
         <v>1784998</v>
@@ -2456,19 +2444,19 @@
         <v>5565536</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" t="s">
         <v>53</v>
-      </c>
-      <c r="U27" t="s">
-        <v>54</v>
-      </c>
-      <c r="V27" t="s">
-        <v>55</v>
-      </c>
-      <c r="W27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2485,40 +2473,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0.476951405386144</v>
+        <v>0.378019306329162</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.6875</v>
+        <v>0.671140939597315</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.0525</v>
+        <v>0.053</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.0003319955255933</v>
       </c>
       <c r="L28">
-        <v>-0.0013921018944806</v>
+        <v>-0.0010036503439023</v>
       </c>
       <c r="M28">
-        <v>0.0015142609106943</v>
+        <v>0.0019090383419381</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.626406652062969</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q28">
         <v>1784998</v>
@@ -2527,19 +2515,19 @@
         <v>5565536</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U28" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" t="s">
         <v>54</v>
-      </c>
-      <c r="V28" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,34 +2547,34 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.164976983051962</v>
+        <v>0.237613029804512</v>
       </c>
       <c r="G29">
-        <v>0.0277777777777778</v>
+        <v>0.0335570469798658</v>
       </c>
       <c r="H29">
-        <v>0.847222222222222</v>
+        <v>0.838926174496644</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>768.5</v>
+        <v>767</v>
       </c>
       <c r="K29">
-        <v>11.56166014595</v>
+        <v>8.696428571428569</v>
       </c>
       <c r="L29">
-        <v>-9.012622690595171</v>
+        <v>-10.6073507198596</v>
       </c>
       <c r="M29">
-        <v>48.1921283417944</v>
+        <v>40.7193140633507</v>
       </c>
       <c r="N29">
-        <v>1.50444504176318</v>
+        <v>1.13382380331533</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
         <v>43</v>
@@ -2598,19 +2586,19 @@
         <v>5565536</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" t="s">
         <v>55</v>
-      </c>
-      <c r="W29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,37 +2618,37 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.0070990447280022</v>
+        <v>0.0072420928788631</v>
       </c>
       <c r="G30">
-        <v>0.316176470588235</v>
+        <v>0.312056737588652</v>
       </c>
       <c r="H30">
-        <v>0.705882352941177</v>
+        <v>0.7092198581560279</v>
       </c>
       <c r="I30">
         <v>3</v>
       </c>
       <c r="J30">
-        <v>0.0281819412736178</v>
+        <v>0.0289980276800077</v>
       </c>
       <c r="K30">
-        <v>0.0008436354473643</v>
+        <v>0.0007754668880151</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0021202457851889</v>
+        <v>0.0019691911739483</v>
       </c>
       <c r="N30">
-        <v>2.99353206073893</v>
+        <v>2.67420562726667</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1784998</v>
@@ -2669,19 +2657,19 @@
         <v>5565536</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" t="s">
         <v>54</v>
-      </c>
-      <c r="V30" t="s">
-        <v>55</v>
-      </c>
-      <c r="W30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,16 +2686,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.0023441864910589</v>
+        <v>0.0041990733161011</v>
       </c>
       <c r="G31">
-        <v>0.1875</v>
+        <v>0.194630872483221</v>
       </c>
       <c r="H31">
-        <v>0.361111111111111</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2716,22 +2704,22 @@
         <v>0.011</v>
       </c>
       <c r="K31">
-        <v>0.0004445463736463</v>
+        <v>0.0003328404610251</v>
       </c>
       <c r="L31">
-        <v>0.0001252079930398</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0008402224992035</v>
+        <v>0.0006668188041989</v>
       </c>
       <c r="N31">
-        <v>4.04133066951195</v>
+        <v>3.02582237295613</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1784998</v>
@@ -2740,19 +2728,19 @@
         <v>5565536</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U31" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31" t="s">
         <v>54</v>
-      </c>
-      <c r="V31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,37 +2760,37 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>0.08792638602291129</v>
+        <v>0.105704333030389</v>
       </c>
       <c r="G32">
-        <v>0.194444444444444</v>
+        <v>0.201342281879195</v>
       </c>
       <c r="H32">
-        <v>0.75</v>
+        <v>0.731543624161074</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="K32">
-        <v>0.0013157926390372</v>
+        <v>0.0007694139978172</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0056358709161517</v>
+        <v>0.0047170492957382</v>
       </c>
       <c r="N32">
-        <v>1.24131381041245</v>
+        <v>0.739821151747357</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q32">
         <v>1784998</v>
@@ -2811,19 +2799,19 @@
         <v>5565536</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U32" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" t="s">
         <v>54</v>
-      </c>
-      <c r="V32" t="s">
-        <v>55</v>
-      </c>
-      <c r="W32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2843,13 +2831,13 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.0248362374447439</v>
+        <v>0.038073709967823</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.617021276595745</v>
+        <v>0.595890410958904</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2858,22 +2846,22 @@
         <v>7.41</v>
       </c>
       <c r="K33">
-        <v>-0.0159730320699707</v>
+        <v>-0.0135528756957329</v>
       </c>
       <c r="L33">
-        <v>-0.0288676624953148</v>
+        <v>-0.0256498736482241</v>
       </c>
       <c r="M33">
-        <v>-0.002735335381997</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-0.215560486774234</v>
+        <v>-0.182899806959958</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1784998</v>
@@ -2882,16 +2870,16 @@
         <v>5565536</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,37 +2899,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0126618706627047</v>
+        <v>0.0161900312840202</v>
       </c>
       <c r="G34">
-        <v>0.0277777777777778</v>
+        <v>0.0268456375838926</v>
       </c>
       <c r="H34">
-        <v>0.888888888888889</v>
+        <v>0.89261744966443</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.2475</v>
+        <v>0.245</v>
       </c>
       <c r="K34">
-        <v>0.0132710908927976</v>
+        <v>0.0098204359816023</v>
       </c>
       <c r="L34">
-        <v>0.0040906629308844</v>
+        <v>0.002486390684888</v>
       </c>
       <c r="M34">
-        <v>0.023692224240811</v>
+        <v>0.0212449341281206</v>
       </c>
       <c r="N34">
-        <v>5.36205692638287</v>
+        <v>4.00834121698054</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q34">
         <v>1784998</v>
@@ -2950,19 +2938,19 @@
         <v>5565536</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" t="s">
+        <v>50</v>
+      </c>
+      <c r="V34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34" t="s">
         <v>53</v>
-      </c>
-      <c r="U34" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" t="s">
-        <v>55</v>
-      </c>
-      <c r="W34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2982,37 +2970,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.0010344740297525</v>
+        <v>0.0019561171790317</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.909722222222222</v>
+        <v>0.906040268456376</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.855</v>
+        <v>1.89</v>
       </c>
       <c r="K35">
-        <v>0.0811729791185317</v>
+        <v>0.0700538095025766</v>
       </c>
       <c r="L35">
-        <v>0.0385105485587367</v>
+        <v>0.0297913128932268</v>
       </c>
       <c r="M35">
-        <v>0.118863695653857</v>
+        <v>0.103399477423385</v>
       </c>
       <c r="N35">
-        <v>4.37590183927395</v>
+        <v>3.7065507673321</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1784998</v>
@@ -3021,19 +3009,19 @@
         <v>5565536</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" t="s">
         <v>53</v>
-      </c>
-      <c r="U35" t="s">
-        <v>54</v>
-      </c>
-      <c r="V35" t="s">
-        <v>55</v>
-      </c>
-      <c r="W35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,37 +3041,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>9.612298783701921E-06</v>
+        <v>2.15367348168262E-05</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.923611111111111</v>
+        <v>0.926174496644295</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.2675</v>
+        <v>0.268</v>
       </c>
       <c r="K36">
-        <v>0.0166662356893977</v>
+        <v>0.0153301614278029</v>
       </c>
       <c r="L36">
-        <v>0.0112146367637222</v>
+        <v>0.0098406363412287</v>
       </c>
       <c r="M36">
-        <v>0.0218161102769411</v>
+        <v>0.0197257215765295</v>
       </c>
       <c r="N36">
-        <v>6.23036848201783</v>
+        <v>5.72020948798615</v>
       </c>
       <c r="O36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1784998</v>
@@ -3092,19 +3080,19 @@
         <v>5565536</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T36" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" t="s">
+        <v>50</v>
+      </c>
+      <c r="V36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" t="s">
         <v>53</v>
-      </c>
-      <c r="U36" t="s">
-        <v>54</v>
-      </c>
-      <c r="V36" t="s">
-        <v>55</v>
-      </c>
-      <c r="W36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3124,37 +3112,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>6.364351455371719E-05</v>
+        <v>0.0001844525789298</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.9375</v>
+        <v>0.939597315436242</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18.75</v>
+        <v>18.7</v>
       </c>
       <c r="K37">
-        <v>1.51036095118003</v>
+        <v>1.30494993420021</v>
       </c>
       <c r="L37">
-        <v>0.919741219807112</v>
+        <v>0.634702257823801</v>
       </c>
       <c r="M37">
-        <v>2.02560721501733</v>
+        <v>1.84004198050956</v>
       </c>
       <c r="N37">
-        <v>8.05525840629352</v>
+        <v>6.97834189411876</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1784998</v>
@@ -3163,19 +3151,19 @@
         <v>5565536</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
